--- a/POA 2026_bd.xlsx
+++ b/POA 2026_bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\poa-ejecutado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19D0FFC-C7E8-4146-9311-9341AA5CD7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1931742-E8ED-4B4F-94CD-BEEF8D60484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="734" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POA2026_ej" sheetId="1" r:id="rId1"/>
@@ -1941,9 +1941,6 @@
     <t>gustavo.martin.4532</t>
   </si>
   <si>
-    <t>D1, CB</t>
-  </si>
-  <si>
     <t>gustavo.martin@gfpsubnacional.pe</t>
   </si>
   <si>
@@ -2845,6 +2842,9 @@
   </si>
   <si>
     <t>R5.P2.4.2</t>
+  </si>
+  <si>
+    <t>D,R5</t>
   </si>
 </sst>
 </file>
@@ -3674,43 +3674,43 @@
   <sheetData>
     <row r="1" spans="1:41" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A1" s="74" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B1" s="75" t="s">
         <v>560</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D1" s="75" t="s">
         <v>561</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F1" s="75" t="s">
         <v>562</v>
       </c>
       <c r="G1" s="74" t="s">
+        <v>881</v>
+      </c>
+      <c r="H1" s="75" t="s">
         <v>882</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="I1" s="74" t="s">
         <v>883</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="J1" s="75" t="s">
         <v>884</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="K1" s="75" t="s">
         <v>885</v>
-      </c>
-      <c r="K1" s="75" t="s">
-        <v>886</v>
       </c>
       <c r="L1" s="74" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="75" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="N1" s="74" t="s">
         <v>1</v>
@@ -3719,82 +3719,82 @@
         <v>2</v>
       </c>
       <c r="P1" s="76" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q1" s="76" t="s">
         <v>888</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="R1" s="76" t="s">
         <v>889</v>
       </c>
-      <c r="R1" s="76" t="s">
+      <c r="S1" s="76" t="s">
         <v>890</v>
       </c>
-      <c r="S1" s="76" t="s">
+      <c r="T1" s="76" t="s">
         <v>891</v>
       </c>
-      <c r="T1" s="76" t="s">
+      <c r="U1" s="76" t="s">
         <v>892</v>
       </c>
-      <c r="U1" s="76" t="s">
+      <c r="V1" s="76" t="s">
         <v>893</v>
       </c>
-      <c r="V1" s="76" t="s">
+      <c r="W1" s="76" t="s">
         <v>894</v>
       </c>
-      <c r="W1" s="76" t="s">
+      <c r="X1" s="76" t="s">
         <v>895</v>
       </c>
-      <c r="X1" s="76" t="s">
+      <c r="Y1" s="76" t="s">
         <v>896</v>
       </c>
-      <c r="Y1" s="76" t="s">
+      <c r="Z1" s="76" t="s">
         <v>897</v>
       </c>
-      <c r="Z1" s="76" t="s">
+      <c r="AA1" s="76" t="s">
         <v>898</v>
       </c>
-      <c r="AA1" s="76" t="s">
+      <c r="AB1" s="76" t="s">
         <v>899</v>
       </c>
-      <c r="AB1" s="76" t="s">
+      <c r="AC1" s="77" t="s">
         <v>900</v>
       </c>
-      <c r="AC1" s="77" t="s">
+      <c r="AD1" s="77" t="s">
         <v>901</v>
       </c>
-      <c r="AD1" s="77" t="s">
+      <c r="AE1" s="77" t="s">
         <v>902</v>
       </c>
-      <c r="AE1" s="77" t="s">
+      <c r="AF1" s="77" t="s">
         <v>903</v>
       </c>
-      <c r="AF1" s="77" t="s">
+      <c r="AG1" s="77" t="s">
         <v>904</v>
       </c>
-      <c r="AG1" s="77" t="s">
+      <c r="AH1" s="77" t="s">
         <v>905</v>
       </c>
-      <c r="AH1" s="77" t="s">
+      <c r="AI1" s="77" t="s">
         <v>906</v>
       </c>
-      <c r="AI1" s="77" t="s">
+      <c r="AJ1" s="77" t="s">
         <v>907</v>
       </c>
-      <c r="AJ1" s="77" t="s">
+      <c r="AK1" s="77" t="s">
         <v>908</v>
       </c>
-      <c r="AK1" s="77" t="s">
+      <c r="AL1" s="77" t="s">
         <v>909</v>
       </c>
-      <c r="AL1" s="77" t="s">
+      <c r="AM1" s="77" t="s">
         <v>910</v>
       </c>
-      <c r="AM1" s="77" t="s">
+      <c r="AN1" s="77" t="s">
         <v>911</v>
       </c>
-      <c r="AN1" s="77" t="s">
+      <c r="AO1" s="77" t="s">
         <v>912</v>
-      </c>
-      <c r="AO1" s="77" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="21.9" customHeight="1" thickBot="1">
@@ -4476,7 +4476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="46.2" thickBot="1">
+    <row r="13" spans="1:41" ht="34.799999999999997" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>310</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="45.6">
+    <row r="39" spans="1:28" ht="34.200000000000003">
       <c r="A39" s="18" t="s">
         <v>3</v>
       </c>
@@ -10859,7 +10859,7 @@
       </c>
       <c r="H103" s="20"/>
       <c r="I103" s="22" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J103" s="12" t="s">
         <v>229</v>
@@ -10949,7 +10949,7 @@
       </c>
       <c r="H104" s="20"/>
       <c r="I104" s="22" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J104" s="14" t="s">
         <v>232</v>
@@ -11039,7 +11039,7 @@
       </c>
       <c r="H105" s="20"/>
       <c r="I105" s="22" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J105" s="14" t="s">
         <v>241</v>
@@ -11100,7 +11100,7 @@
       </c>
       <c r="H106" s="20"/>
       <c r="I106" s="22" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J106" s="14" t="s">
         <v>336</v>
@@ -11162,7 +11162,7 @@
       </c>
       <c r="H107" s="20"/>
       <c r="I107" s="22" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J107" s="14" t="s">
         <v>238</v>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="H110" s="20"/>
       <c r="I110" s="22" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J110" s="12" t="s">
         <v>243</v>
@@ -11414,7 +11414,7 @@
       </c>
       <c r="H111" s="20"/>
       <c r="I111" s="22" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J111" s="12" t="s">
         <v>247</v>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="H112" s="20"/>
       <c r="I112" s="22" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J112" s="12" t="s">
         <v>251</v>
@@ -14115,15 +14115,15 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="P2:AA112">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P113:AA134 P135:AB139 P140:AA149">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14139,7 +14139,7 @@
   </sheetPr>
   <dimension ref="A1:AO7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="59" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -14164,43 +14164,43 @@
   <sheetData>
     <row r="1" spans="1:41" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A1" s="74" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B1" s="75" t="s">
         <v>560</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D1" s="75" t="s">
         <v>561</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F1" s="75" t="s">
         <v>562</v>
       </c>
       <c r="G1" s="74" t="s">
+        <v>881</v>
+      </c>
+      <c r="H1" s="75" t="s">
         <v>882</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="I1" s="74" t="s">
         <v>883</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="J1" s="75" t="s">
         <v>884</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="K1" s="75" t="s">
         <v>885</v>
-      </c>
-      <c r="K1" s="75" t="s">
-        <v>886</v>
       </c>
       <c r="L1" s="74" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="75" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="N1" s="74" t="s">
         <v>1</v>
@@ -14209,82 +14209,82 @@
         <v>2</v>
       </c>
       <c r="P1" s="76" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q1" s="76" t="s">
         <v>888</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="R1" s="76" t="s">
         <v>889</v>
       </c>
-      <c r="R1" s="76" t="s">
+      <c r="S1" s="76" t="s">
         <v>890</v>
       </c>
-      <c r="S1" s="76" t="s">
+      <c r="T1" s="76" t="s">
         <v>891</v>
       </c>
-      <c r="T1" s="76" t="s">
+      <c r="U1" s="76" t="s">
         <v>892</v>
       </c>
-      <c r="U1" s="76" t="s">
+      <c r="V1" s="76" t="s">
         <v>893</v>
       </c>
-      <c r="V1" s="76" t="s">
+      <c r="W1" s="76" t="s">
         <v>894</v>
       </c>
-      <c r="W1" s="76" t="s">
+      <c r="X1" s="76" t="s">
         <v>895</v>
       </c>
-      <c r="X1" s="76" t="s">
+      <c r="Y1" s="76" t="s">
         <v>896</v>
       </c>
-      <c r="Y1" s="76" t="s">
+      <c r="Z1" s="76" t="s">
         <v>897</v>
       </c>
-      <c r="Z1" s="76" t="s">
+      <c r="AA1" s="76" t="s">
         <v>898</v>
       </c>
-      <c r="AA1" s="76" t="s">
+      <c r="AB1" s="76" t="s">
         <v>899</v>
       </c>
-      <c r="AB1" s="76" t="s">
+      <c r="AC1" s="77" t="s">
         <v>900</v>
       </c>
-      <c r="AC1" s="77" t="s">
+      <c r="AD1" s="77" t="s">
         <v>901</v>
       </c>
-      <c r="AD1" s="77" t="s">
+      <c r="AE1" s="77" t="s">
         <v>902</v>
       </c>
-      <c r="AE1" s="77" t="s">
+      <c r="AF1" s="77" t="s">
         <v>903</v>
       </c>
-      <c r="AF1" s="77" t="s">
+      <c r="AG1" s="77" t="s">
         <v>904</v>
       </c>
-      <c r="AG1" s="77" t="s">
+      <c r="AH1" s="77" t="s">
         <v>905</v>
       </c>
-      <c r="AH1" s="77" t="s">
+      <c r="AI1" s="77" t="s">
         <v>906</v>
       </c>
-      <c r="AI1" s="77" t="s">
+      <c r="AJ1" s="77" t="s">
         <v>907</v>
       </c>
-      <c r="AJ1" s="77" t="s">
+      <c r="AK1" s="77" t="s">
         <v>908</v>
       </c>
-      <c r="AK1" s="77" t="s">
+      <c r="AL1" s="77" t="s">
         <v>909</v>
       </c>
-      <c r="AL1" s="77" t="s">
+      <c r="AM1" s="77" t="s">
         <v>910</v>
       </c>
-      <c r="AM1" s="77" t="s">
+      <c r="AN1" s="77" t="s">
         <v>911</v>
       </c>
-      <c r="AN1" s="77" t="s">
+      <c r="AO1" s="77" t="s">
         <v>912</v>
-      </c>
-      <c r="AO1" s="77" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="21.9" customHeight="1" thickBot="1">
@@ -14666,15 +14666,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="P2:AA4">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5:AB5 P6:AA7">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14964,9 +14964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EE02CA-09D1-4464-BFF5-44745092D3B2}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScale="72" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -15109,35 +15109,35 @@
         <v>607</v>
       </c>
       <c r="H4" s="67" t="s">
-        <v>620</v>
+        <v>287</v>
       </c>
       <c r="I4" s="65" t="s">
         <v>615</v>
       </c>
       <c r="J4" s="65"/>
       <c r="K4" s="65" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L4" s="65"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="65" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B5" s="65" t="s">
         <v>610</v>
       </c>
       <c r="C5" s="66" t="s">
+        <v>622</v>
+      </c>
+      <c r="D5" s="66" t="s">
         <v>623</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>624</v>
       </c>
       <c r="E5" s="65" t="s">
         <v>613</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G5" s="65" t="s">
         <v>607</v>
@@ -15149,33 +15149,33 @@
         <v>615</v>
       </c>
       <c r="J5" s="65" t="s">
+        <v>625</v>
+      </c>
+      <c r="K5" s="65" t="s">
         <v>626</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="L5" s="65" t="s">
         <v>627</v>
-      </c>
-      <c r="L5" s="65" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="65" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B6" s="65" t="s">
         <v>610</v>
       </c>
       <c r="C6" s="66" t="s">
+        <v>629</v>
+      </c>
+      <c r="D6" s="66" t="s">
         <v>630</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>631</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>613</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G6" s="65" t="s">
         <v>607</v>
@@ -15190,30 +15190,30 @@
         <v>980449097</v>
       </c>
       <c r="K6" s="65" t="s">
+        <v>632</v>
+      </c>
+      <c r="L6" s="65" t="s">
         <v>633</v>
-      </c>
-      <c r="L6" s="65" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="65" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B7" s="65" t="s">
         <v>610</v>
       </c>
       <c r="C7" s="66" t="s">
+        <v>635</v>
+      </c>
+      <c r="D7" s="66" t="s">
         <v>636</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>637</v>
       </c>
       <c r="E7" s="65" t="s">
         <v>613</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G7" s="65" t="s">
         <v>607</v>
@@ -15228,30 +15228,30 @@
         <v>922756652</v>
       </c>
       <c r="K7" s="65" t="s">
+        <v>638</v>
+      </c>
+      <c r="L7" s="65" t="s">
         <v>639</v>
-      </c>
-      <c r="L7" s="65" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="65" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B8" s="65" t="s">
         <v>610</v>
       </c>
       <c r="C8" s="66" t="s">
+        <v>641</v>
+      </c>
+      <c r="D8" s="66" t="s">
         <v>642</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>643</v>
       </c>
       <c r="E8" s="65" t="s">
         <v>613</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G8" s="65" t="s">
         <v>607</v>
@@ -15260,62 +15260,62 @@
         <v>190</v>
       </c>
       <c r="I8" s="65" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J8" s="65">
         <v>954693246</v>
       </c>
       <c r="K8" s="65" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="65" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B9" s="65" t="s">
         <v>610</v>
       </c>
       <c r="C9" s="66" t="s">
+        <v>647</v>
+      </c>
+      <c r="D9" s="66" t="s">
         <v>648</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="E9" s="65" t="s">
         <v>649</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="F9" s="65" t="s">
         <v>650</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="G9" s="65" t="s">
         <v>651</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="H9" s="65" t="s">
+        <v>921</v>
+      </c>
+      <c r="I9" s="65" t="s">
         <v>652</v>
-      </c>
-      <c r="H9" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="I9" s="65" t="s">
-        <v>653</v>
       </c>
       <c r="J9" s="65"/>
       <c r="K9" s="65" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="55" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B10" s="55" t="s">
         <v>610</v>
       </c>
       <c r="C10" s="68" t="s">
+        <v>655</v>
+      </c>
+      <c r="D10" s="68" t="s">
         <v>656</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>657</v>
       </c>
       <c r="E10" s="55" t="s">
         <v>613</v>
@@ -15328,28 +15328,28 @@
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
       <c r="K10" s="70" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L10" s="55"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="55" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B11" s="55" t="s">
         <v>610</v>
       </c>
       <c r="C11" s="68" t="s">
+        <v>659</v>
+      </c>
+      <c r="D11" s="68" t="s">
         <v>660</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>661</v>
       </c>
       <c r="E11" s="55" t="s">
         <v>613</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>607</v>
@@ -15358,26 +15358,26 @@
         <v>318</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J11" s="55"/>
       <c r="K11" s="55" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L11" s="55"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="55" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B12" s="55" t="s">
         <v>610</v>
       </c>
       <c r="C12" s="68" t="s">
+        <v>665</v>
+      </c>
+      <c r="D12" s="68" t="s">
         <v>666</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>667</v>
       </c>
       <c r="E12" s="55" t="s">
         <v>613</v>
@@ -15392,32 +15392,32 @@
         <v>325</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J12" s="55"/>
       <c r="K12" s="71" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L12" s="55"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B13" t="s">
         <v>610</v>
       </c>
       <c r="C13" s="72" t="s">
+        <v>670</v>
+      </c>
+      <c r="D13" s="72" t="s">
         <v>671</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="E13" t="s">
         <v>672</v>
       </c>
-      <c r="E13" t="s">
-        <v>673</v>
-      </c>
       <c r="F13" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G13" t="s">
         <v>473</v>
@@ -15429,33 +15429,33 @@
         <v>615</v>
       </c>
       <c r="J13" t="s">
+        <v>673</v>
+      </c>
+      <c r="K13" t="s">
         <v>674</v>
-      </c>
-      <c r="K13" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B14" t="s">
         <v>610</v>
       </c>
       <c r="C14" s="72" t="s">
+        <v>676</v>
+      </c>
+      <c r="D14" s="72" t="s">
         <v>677</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="E14" t="s">
+        <v>672</v>
+      </c>
+      <c r="F14" t="s">
+        <v>631</v>
+      </c>
+      <c r="G14" t="s">
         <v>678</v>
-      </c>
-      <c r="E14" t="s">
-        <v>673</v>
-      </c>
-      <c r="F14" t="s">
-        <v>632</v>
-      </c>
-      <c r="G14" t="s">
-        <v>679</v>
       </c>
       <c r="H14" t="s">
         <v>98</v>
@@ -15467,33 +15467,33 @@
         <v>980636629</v>
       </c>
       <c r="K14" t="s">
+        <v>679</v>
+      </c>
+      <c r="L14" t="s">
         <v>680</v>
-      </c>
-      <c r="L14" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B15" t="s">
         <v>610</v>
       </c>
       <c r="C15" s="72" t="s">
+        <v>682</v>
+      </c>
+      <c r="D15" s="72" t="s">
         <v>683</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="E15" t="s">
+        <v>672</v>
+      </c>
+      <c r="F15" t="s">
+        <v>631</v>
+      </c>
+      <c r="G15" t="s">
         <v>684</v>
-      </c>
-      <c r="E15" t="s">
-        <v>673</v>
-      </c>
-      <c r="F15" t="s">
-        <v>632</v>
-      </c>
-      <c r="G15" t="s">
-        <v>685</v>
       </c>
       <c r="H15" t="s">
         <v>98</v>
@@ -15505,33 +15505,33 @@
         <v>953911888</v>
       </c>
       <c r="K15" t="s">
+        <v>685</v>
+      </c>
+      <c r="L15" t="s">
         <v>686</v>
-      </c>
-      <c r="L15" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B16" t="s">
         <v>610</v>
       </c>
       <c r="C16" s="72" t="s">
+        <v>688</v>
+      </c>
+      <c r="D16" s="72" t="s">
         <v>689</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="E16" t="s">
+        <v>672</v>
+      </c>
+      <c r="F16" t="s">
+        <v>631</v>
+      </c>
+      <c r="G16" t="s">
         <v>690</v>
-      </c>
-      <c r="E16" t="s">
-        <v>673</v>
-      </c>
-      <c r="F16" t="s">
-        <v>632</v>
-      </c>
-      <c r="G16" t="s">
-        <v>691</v>
       </c>
       <c r="H16" t="s">
         <v>98</v>
@@ -15543,33 +15543,33 @@
         <v>949910756</v>
       </c>
       <c r="K16" t="s">
+        <v>691</v>
+      </c>
+      <c r="L16" t="s">
         <v>692</v>
-      </c>
-      <c r="L16" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B17" t="s">
         <v>610</v>
       </c>
       <c r="C17" s="72" t="s">
+        <v>694</v>
+      </c>
+      <c r="D17" s="72" t="s">
         <v>695</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="E17" t="s">
+        <v>672</v>
+      </c>
+      <c r="F17" t="s">
+        <v>631</v>
+      </c>
+      <c r="G17" t="s">
         <v>696</v>
-      </c>
-      <c r="E17" t="s">
-        <v>673</v>
-      </c>
-      <c r="F17" t="s">
-        <v>632</v>
-      </c>
-      <c r="G17" t="s">
-        <v>697</v>
       </c>
       <c r="H17" t="s">
         <v>98</v>
@@ -15581,33 +15581,33 @@
         <v>965195777</v>
       </c>
       <c r="K17" t="s">
+        <v>697</v>
+      </c>
+      <c r="L17" t="s">
         <v>698</v>
-      </c>
-      <c r="L17" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B18" t="s">
         <v>610</v>
       </c>
       <c r="C18" s="72" t="s">
+        <v>700</v>
+      </c>
+      <c r="D18" s="72" t="s">
         <v>701</v>
       </c>
-      <c r="D18" s="72" t="s">
-        <v>702</v>
-      </c>
       <c r="E18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G18" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H18" t="s">
         <v>3</v>
@@ -15619,33 +15619,33 @@
         <v>989244539</v>
       </c>
       <c r="K18" t="s">
+        <v>702</v>
+      </c>
+      <c r="L18" t="s">
         <v>703</v>
-      </c>
-      <c r="L18" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B19" t="s">
         <v>610</v>
       </c>
       <c r="C19" s="72" t="s">
+        <v>705</v>
+      </c>
+      <c r="D19" s="72" t="s">
         <v>706</v>
       </c>
-      <c r="D19" s="72" t="s">
-        <v>707</v>
-      </c>
       <c r="E19" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G19" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H19" t="s">
         <v>3</v>
@@ -15654,30 +15654,30 @@
         <v>615</v>
       </c>
       <c r="K19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B20" t="s">
         <v>610</v>
       </c>
       <c r="C20" s="72" t="s">
+        <v>709</v>
+      </c>
+      <c r="D20" s="72" t="s">
         <v>710</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="E20" t="s">
+        <v>672</v>
+      </c>
+      <c r="F20" t="s">
+        <v>637</v>
+      </c>
+      <c r="G20" t="s">
         <v>711</v>
-      </c>
-      <c r="E20" t="s">
-        <v>673</v>
-      </c>
-      <c r="F20" t="s">
-        <v>638</v>
-      </c>
-      <c r="G20" t="s">
-        <v>712</v>
       </c>
       <c r="H20" t="s">
         <v>139</v>
@@ -15686,30 +15686,30 @@
         <v>615</v>
       </c>
       <c r="K20" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B21" t="s">
         <v>610</v>
       </c>
       <c r="C21" s="72" t="s">
+        <v>714</v>
+      </c>
+      <c r="D21" s="72" t="s">
         <v>715</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="E21" t="s">
+        <v>672</v>
+      </c>
+      <c r="F21" t="s">
+        <v>631</v>
+      </c>
+      <c r="G21" t="s">
         <v>716</v>
-      </c>
-      <c r="E21" t="s">
-        <v>673</v>
-      </c>
-      <c r="F21" t="s">
-        <v>632</v>
-      </c>
-      <c r="G21" t="s">
-        <v>717</v>
       </c>
       <c r="H21" t="s">
         <v>98</v>
@@ -15721,33 +15721,33 @@
         <v>945047558</v>
       </c>
       <c r="K21" t="s">
+        <v>717</v>
+      </c>
+      <c r="L21" t="s">
         <v>718</v>
-      </c>
-      <c r="L21" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B22" t="s">
         <v>610</v>
       </c>
       <c r="C22" s="72" t="s">
+        <v>720</v>
+      </c>
+      <c r="D22" s="72" t="s">
         <v>721</v>
       </c>
-      <c r="D22" s="72" t="s">
-        <v>722</v>
-      </c>
       <c r="E22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H22" t="s">
         <v>3</v>
@@ -15759,33 +15759,33 @@
         <v>914819913</v>
       </c>
       <c r="K22" t="s">
+        <v>722</v>
+      </c>
+      <c r="L22" t="s">
         <v>723</v>
-      </c>
-      <c r="L22" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B23" t="s">
         <v>610</v>
       </c>
       <c r="C23" s="72" t="s">
+        <v>725</v>
+      </c>
+      <c r="D23" s="72" t="s">
         <v>726</v>
       </c>
-      <c r="D23" s="72" t="s">
-        <v>727</v>
-      </c>
       <c r="E23" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G23" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H23" t="s">
         <v>3</v>
@@ -15797,33 +15797,33 @@
         <v>952689761</v>
       </c>
       <c r="K23" t="s">
+        <v>727</v>
+      </c>
+      <c r="L23" t="s">
         <v>728</v>
-      </c>
-      <c r="L23" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B24" t="s">
         <v>610</v>
       </c>
       <c r="C24" s="72" t="s">
+        <v>730</v>
+      </c>
+      <c r="D24" s="72" t="s">
         <v>731</v>
       </c>
-      <c r="D24" s="72" t="s">
+      <c r="E24" t="s">
+        <v>672</v>
+      </c>
+      <c r="F24" t="s">
+        <v>637</v>
+      </c>
+      <c r="G24" t="s">
         <v>732</v>
-      </c>
-      <c r="E24" t="s">
-        <v>673</v>
-      </c>
-      <c r="F24" t="s">
-        <v>638</v>
-      </c>
-      <c r="G24" t="s">
-        <v>733</v>
       </c>
       <c r="H24" t="s">
         <v>139</v>
@@ -15835,30 +15835,30 @@
         <v>949411116</v>
       </c>
       <c r="K24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B25" t="s">
         <v>610</v>
       </c>
       <c r="C25" s="72" t="s">
+        <v>735</v>
+      </c>
+      <c r="D25" s="72" t="s">
         <v>736</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="E25" t="s">
+        <v>672</v>
+      </c>
+      <c r="F25" t="s">
+        <v>631</v>
+      </c>
+      <c r="G25" t="s">
         <v>737</v>
-      </c>
-      <c r="E25" t="s">
-        <v>673</v>
-      </c>
-      <c r="F25" t="s">
-        <v>632</v>
-      </c>
-      <c r="G25" t="s">
-        <v>738</v>
       </c>
       <c r="H25" t="s">
         <v>98</v>
@@ -15867,27 +15867,27 @@
         <v>615</v>
       </c>
       <c r="K25" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B26" t="s">
         <v>610</v>
       </c>
       <c r="C26" s="72" t="s">
+        <v>740</v>
+      </c>
+      <c r="D26" s="72" t="s">
         <v>741</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>742</v>
       </c>
       <c r="E26" t="s">
         <v>613</v>
       </c>
       <c r="F26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G26" t="s">
         <v>607</v>
@@ -15896,33 +15896,33 @@
         <v>190</v>
       </c>
       <c r="I26" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K26" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B27" t="s">
         <v>610</v>
       </c>
       <c r="C27" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="D27" s="72" t="s">
         <v>745</v>
       </c>
-      <c r="D27" s="72" t="s">
-        <v>746</v>
-      </c>
       <c r="E27" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G27" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H27" t="s">
         <v>3</v>
@@ -15934,33 +15934,33 @@
         <v>981800598</v>
       </c>
       <c r="K27" t="s">
+        <v>746</v>
+      </c>
+      <c r="L27" t="s">
         <v>747</v>
-      </c>
-      <c r="L27" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B28" t="s">
         <v>610</v>
       </c>
       <c r="C28" s="72" t="s">
+        <v>749</v>
+      </c>
+      <c r="D28" s="72" t="s">
         <v>750</v>
       </c>
-      <c r="D28" s="72" t="s">
-        <v>751</v>
-      </c>
       <c r="E28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G28" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H28" t="s">
         <v>3</v>
@@ -15969,36 +15969,36 @@
         <v>615</v>
       </c>
       <c r="J28" t="s">
+        <v>751</v>
+      </c>
+      <c r="K28" t="s">
         <v>752</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>753</v>
-      </c>
-      <c r="L28" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B29" t="s">
         <v>610</v>
       </c>
       <c r="C29" s="72" t="s">
+        <v>755</v>
+      </c>
+      <c r="D29" s="72" t="s">
         <v>756</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="E29" t="s">
+        <v>672</v>
+      </c>
+      <c r="F29" t="s">
+        <v>637</v>
+      </c>
+      <c r="G29" t="s">
         <v>757</v>
-      </c>
-      <c r="E29" t="s">
-        <v>673</v>
-      </c>
-      <c r="F29" t="s">
-        <v>638</v>
-      </c>
-      <c r="G29" t="s">
-        <v>758</v>
       </c>
       <c r="H29" t="s">
         <v>139</v>
@@ -16007,30 +16007,30 @@
         <v>615</v>
       </c>
       <c r="K29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B30" t="s">
         <v>610</v>
       </c>
       <c r="C30" s="72" t="s">
+        <v>760</v>
+      </c>
+      <c r="D30" s="72" t="s">
         <v>761</v>
       </c>
-      <c r="D30" s="72" t="s">
-        <v>762</v>
-      </c>
       <c r="E30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F30" t="s">
         <v>614</v>
       </c>
       <c r="G30" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H30" t="s">
         <v>287</v>
@@ -16039,30 +16039,30 @@
         <v>615</v>
       </c>
       <c r="K30" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B31" t="s">
         <v>610</v>
       </c>
       <c r="C31" s="72" t="s">
+        <v>765</v>
+      </c>
+      <c r="D31" s="72" t="s">
         <v>766</v>
       </c>
-      <c r="D31" s="72" t="s">
-        <v>767</v>
-      </c>
       <c r="E31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F31" t="s">
         <v>614</v>
       </c>
       <c r="G31" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H31" t="s">
         <v>287</v>
@@ -16071,30 +16071,30 @@
         <v>615</v>
       </c>
       <c r="K31" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B32" t="s">
         <v>610</v>
       </c>
       <c r="C32" s="72" t="s">
+        <v>769</v>
+      </c>
+      <c r="D32" s="72" t="s">
         <v>770</v>
       </c>
-      <c r="D32" s="72" t="s">
-        <v>771</v>
-      </c>
       <c r="E32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F32" t="s">
         <v>614</v>
       </c>
       <c r="G32" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H32" t="s">
         <v>287</v>
@@ -16103,30 +16103,30 @@
         <v>615</v>
       </c>
       <c r="K32" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B33" t="s">
         <v>610</v>
       </c>
       <c r="C33" s="72" t="s">
+        <v>774</v>
+      </c>
+      <c r="D33" s="72" t="s">
         <v>775</v>
       </c>
-      <c r="D33" s="72" t="s">
-        <v>776</v>
-      </c>
       <c r="E33" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F33" t="s">
         <v>614</v>
       </c>
       <c r="G33" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H33" t="s">
         <v>287</v>
@@ -16135,30 +16135,30 @@
         <v>615</v>
       </c>
       <c r="K33" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B34" t="s">
         <v>610</v>
       </c>
       <c r="C34" s="72" t="s">
+        <v>778</v>
+      </c>
+      <c r="D34" s="72" t="s">
         <v>779</v>
       </c>
-      <c r="D34" s="72" t="s">
-        <v>780</v>
-      </c>
       <c r="E34" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F34" t="s">
         <v>614</v>
       </c>
       <c r="G34" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H34" t="s">
         <v>287</v>
@@ -16167,30 +16167,30 @@
         <v>615</v>
       </c>
       <c r="K34" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B35" t="s">
         <v>610</v>
       </c>
       <c r="C35" s="72" t="s">
+        <v>783</v>
+      </c>
+      <c r="D35" s="72" t="s">
         <v>784</v>
       </c>
-      <c r="D35" s="72" t="s">
-        <v>785</v>
-      </c>
       <c r="E35" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F35" t="s">
         <v>614</v>
       </c>
       <c r="G35" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H35" t="s">
         <v>287</v>
@@ -16199,27 +16199,27 @@
         <v>615</v>
       </c>
       <c r="K35" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B36" t="s">
         <v>610</v>
       </c>
       <c r="C36" s="72" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D36" s="72" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E36" t="s">
         <v>613</v>
       </c>
       <c r="F36" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G36" t="s">
         <v>607</v>
@@ -16234,10 +16234,10 @@
         <v>922756652</v>
       </c>
       <c r="K36" s="73" t="s">
+        <v>788</v>
+      </c>
+      <c r="L36" s="73" t="s">
         <v>789</v>
-      </c>
-      <c r="L36" s="73" t="s">
-        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -16264,295 +16264,295 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" s="48" t="s">
+        <v>790</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>791</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="C1" s="48" t="s">
         <v>792</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="48" t="s">
         <v>793</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="E1" s="48" t="s">
         <v>794</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="F1" s="48" t="s">
         <v>795</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="G1" s="48" t="s">
         <v>796</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="H1" s="48" t="s">
         <v>797</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="48" t="s">
         <v>798</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="J1" s="48" t="s">
         <v>799</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="K1" s="48" t="s">
         <v>800</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="L1" s="48" t="s">
         <v>801</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="M1" s="48" t="s">
         <v>802</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="N1" s="48" t="s">
         <v>803</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>804</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>805</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="48" t="s">
         <v>806</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="R1" s="48" t="s">
         <v>807</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="S1" s="48" t="s">
         <v>808</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="T1" s="48" t="s">
         <v>809</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="U1" s="48" t="s">
         <v>810</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="V1" s="48" t="s">
         <v>811</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="W1" s="48" t="s">
         <v>812</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="X1" s="48" t="s">
         <v>813</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="Y1" s="48" t="s">
         <v>814</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="Z1" s="48" t="s">
         <v>815</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="AA1" s="48" t="s">
         <v>816</v>
       </c>
-      <c r="AA1" s="48" t="s">
+      <c r="AB1" s="48" t="s">
         <v>817</v>
       </c>
-      <c r="AB1" s="48" t="s">
+      <c r="AC1" s="48" t="s">
         <v>818</v>
       </c>
-      <c r="AC1" s="48" t="s">
+      <c r="AD1" s="48" t="s">
         <v>819</v>
       </c>
-      <c r="AD1" s="48" t="s">
+      <c r="AE1" s="48" t="s">
         <v>820</v>
       </c>
-      <c r="AE1" s="48" t="s">
+      <c r="AF1" s="48" t="s">
         <v>821</v>
-      </c>
-      <c r="AF1" s="48" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="B2" t="s">
         <v>823</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>824</v>
-      </c>
-      <c r="C2" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="48" t="s">
+        <v>825</v>
+      </c>
+      <c r="B3" t="s">
         <v>826</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>827</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>828</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>829</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>830</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>831</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>832</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>833</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>834</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>835</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>836</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>837</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>838</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>839</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>840</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>841</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>842</v>
-      </c>
-      <c r="R3" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="48" t="s">
+        <v>843</v>
+      </c>
+      <c r="B4" t="s">
+        <v>826</v>
+      </c>
+      <c r="C4" t="s">
         <v>844</v>
       </c>
-      <c r="B4" t="s">
-        <v>827</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>845</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>846</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>847</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>848</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>849</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>850</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>851</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>852</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>853</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>854</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>855</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>856</v>
       </c>
-      <c r="O4" t="s">
-        <v>857</v>
-      </c>
       <c r="P4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="Q4" t="s">
         <v>473</v>
       </c>
       <c r="R4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="S4" t="s">
+        <v>857</v>
+      </c>
+      <c r="T4" t="s">
         <v>858</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>859</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>860</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>861</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>862</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>863</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>864</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>865</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>866</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>867</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>868</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>869</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="48" t="s">
+        <v>870</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>871</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="C5" s="48" t="s">
         <v>872</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="48" t="s">
+        <v>873</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>874</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>875</v>
-      </c>
       <c r="C6" s="48" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="48" t="s">
+        <v>875</v>
+      </c>
+      <c r="B7" s="48" t="s">
         <v>876</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="C7" s="48" t="s">
         <v>877</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>878</v>
       </c>
     </row>
   </sheetData>

--- a/POA 2026_bd.xlsx
+++ b/POA 2026_bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\poa-ejecutado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1931742-E8ED-4B4F-94CD-BEEF8D60484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A12F03-DFBD-4A81-8A5E-50354BD87353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="734" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POA2026_ej" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="922">
   <si>
     <t>Indicador</t>
   </si>
@@ -3652,8 +3652,8 @@
   </sheetPr>
   <dimension ref="A1:AO149"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" zoomScale="59" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="59" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.44140625" defaultRowHeight="21.9" customHeight="1"/>
@@ -8710,10 +8710,12 @@
         <f>IFERROR(CONCATENATE(A71,". ",VLOOKUP(A71,'results, prods y acts'!$A$2:$B$8,2,FALSE)),"")</f>
         <v>R2. Los procesos de gestión de gasto de capital vinculados a los servicios priorizados a cargo de los GSN son más eficaces y eficientes</v>
       </c>
-      <c r="C71" s="42"/>
+      <c r="C71" s="42" t="s">
+        <v>583</v>
+      </c>
       <c r="D71" s="42" t="str">
         <f>IFERROR(CONCATENATE(C71,". ",VLOOKUP(C71,'results, prods y acts'!$D$2:$E$12,2,FALSE)),CONCATENATE(C71,". "))</f>
-        <v xml:space="preserve">. </v>
+        <v xml:space="preserve">P6. </v>
       </c>
       <c r="E71" s="42"/>
       <c r="F71" s="42" t="str">
@@ -8781,10 +8783,12 @@
         <f>IFERROR(CONCATENATE(A72,". ",VLOOKUP(A72,'results, prods y acts'!$A$2:$B$8,2,FALSE)),"")</f>
         <v>R2. Los procesos de gestión de gasto de capital vinculados a los servicios priorizados a cargo de los GSN son más eficaces y eficientes</v>
       </c>
-      <c r="C72" s="42"/>
+      <c r="C72" s="42" t="s">
+        <v>583</v>
+      </c>
       <c r="D72" s="42" t="str">
         <f>IFERROR(CONCATENATE(C72,". ",VLOOKUP(C72,'results, prods y acts'!$D$2:$E$12,2,FALSE)),CONCATENATE(C72,". "))</f>
-        <v xml:space="preserve">. </v>
+        <v xml:space="preserve">P6. </v>
       </c>
       <c r="E72" s="42"/>
       <c r="F72" s="42" t="str">
@@ -9811,10 +9815,12 @@
         <f>IFERROR(CONCATENATE(A88,". ",VLOOKUP(A88,'results, prods y acts'!$A$2:$B$8,2,FALSE)),"")</f>
         <v>R3. Los procesos priorizados de recaudación del impuesto predial en los Gobiernos Locales son más eficaces y eficientes</v>
       </c>
-      <c r="C88" s="42"/>
+      <c r="C88" s="42" t="s">
+        <v>583</v>
+      </c>
       <c r="D88" s="42" t="str">
         <f>IFERROR(CONCATENATE(C88,". ",VLOOKUP(C88,'results, prods y acts'!$D$2:$E$12,2,FALSE)),CONCATENATE(C88,". "))</f>
-        <v xml:space="preserve">. </v>
+        <v xml:space="preserve">P6. </v>
       </c>
       <c r="E88" s="42"/>
       <c r="F88" s="42" t="str">
@@ -14964,7 +14970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EE02CA-09D1-4464-BFF5-44745092D3B2}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+    <sheetView zoomScale="72" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
